--- a/CheatSheet.xlsx
+++ b/CheatSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\300Templates\LaTexT0000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898D03B8-09A9-43FF-89CB-05B987721F94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5CE4BE-EF7E-4F97-BB83-88861081B4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15394" xr2:uid="{1438DDEB-EACA-4B38-9C4E-0A7552483ACC}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="58">
   <si>
     <t>Befehl</t>
   </si>
@@ -74,9 +74,6 @@
     <t>Verlinkung zu einem Kapitel</t>
   </si>
   <si>
-    <t>Zitatumgebung</t>
-  </si>
-  <si>
     <r>
       <t>\label{</t>
     </r>
@@ -161,9 +158,6 @@
     <t>Text wird unterstrichen</t>
   </si>
   <si>
-    <t>Text wird schräg angezeigt</t>
-  </si>
-  <si>
     <t>Text wird unterstrichen und Fett angezeigt</t>
   </si>
   <si>
@@ -264,54 +258,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Erstellen eines Verlinkungspunkt (typischerweise nach einer Kapitelüberschrift gemacht)
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hinweis:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Es ist besonders zu empfehlen die Links nach dem einmaligen Erstellen nicht wieder zu ändern. Ansonste kann es im Dokument zu ungewollten Fehlern kommen.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tipp:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Am Anfang einen Tag, wie z.B. sec: für Section oder fig: für eine Abbildung um diese Links von einander zu unterscheiden. Prinzipiell ist es aber egal wie ihr euren Link bennent.</t>
     </r>
   </si>
   <si>
@@ -577,114 +523,6 @@
       </rPr>
       <t>}
 \end{figure}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fügt eine Abbildung mit einer der Bildunterschrift </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Bildunterschrieft&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> an einer passenden Stelle ein. Versucht hierbei keine großen Lücken auf dem Platt zu hinterlassen. Soll eine Abbildung an eine spezielle Stelle gepackt werden so kann mit H anstatt von htbp dies definiert werden.
-Mit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Größe&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wird die Größe des Bildes dargestellt. Hierbei wird die Orginalgröße der Abbildung mit der Gleitkommazahl multipliziert. 1 bedeutet also das das Bild in Orginalgröße dargestellt wird. 0,5 das es auf die hälfte runterskaliert wird.
-Mit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Dateipfad&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wird der Dateipfad der Datei angegeben. Hierbei wird von dem Ordner in dem die Main ist ausgegangen. Meistens wird hier also eine Angabe wie /Abbildungen/... gemacht.
-Mit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Link&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wird ein Link erstellt auf den man im Text mit \ref{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Link&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>} verwiesen werden kann.</t>
     </r>
   </si>
   <si>
@@ -1216,6 +1054,238 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Fügt die Quelle mit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Bibtexkey&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ein</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fügt die Quelle mit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Bibtexkey&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und einen Hinweis auf die </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Seitenzahlen&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ein</t>
+    </r>
+  </si>
+  <si>
+    <t>Text wird kursiv angezeigt</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Erstellen eines Verlinkungspunkt (typischerweise nach einer Kapitelüberschrift gemacht)
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hinweis:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Es ist besonders zu empfehlen die Links nach dem einmaligen Erstellen nicht wieder zu ändern. Ansonsten kann es im Dokument zu ungewollten Fehlern kommen.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tipp:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Am Anfang einen Tag (z.B. sec: für Section oder fig: für eine Abbildung) um diese Links von einander zu unterscheiden. Prinzipiell ist es aber egal wie ihr euren Link bennent.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Zitatumgebung </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fügt eine Abbildung mit der Bildunterschrift </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Bildunterschrieft&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> an einer passenden Stelle ein. Versucht hierbei keine großen Lücken auf dem Blatt zu hinterlassen. Soll eine Abbildung an eine spezielle Stelle gepackt werden so kann mit H anstatt von htbp dies definiert werden.
+Mit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Größe&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wird die Größe des Bildes dargestellt. Hierbei wird die Orginalgröße der Abbildung mit der Gleitkommazahl multipliziert. 1 bedeutet also das das Bild in Orginalgröße dargestellt wird. 0,5 das es auf die Hälfte runterskaliert wird.
+Mit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Dateipfad&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wird der Dateipfad der Datei angegeben. Hierbei wird von dem Ordner in dem die Main ist ausgegangen. Meistens wird hier also eine Angabe wie /Abbildungen/... gemacht.
+Mit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Link&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wird ein Link erstellt auf den man im Text mit \ref{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Link&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>} verweisen werden kann.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Erstellt (in diesem Fall) eine Tabelle mit 4 Zeilen und der Tabellenunterschrift </t>
     </r>
     <r>
@@ -1226,17 +1296,18 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;Tabellenunterschrift&gt;.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
+      <t>&lt;Tabellenunterschrift&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+Im Gegensatz zu \begin{table} usw. kann eine longtable benutzt werden um eine lange Tabelle zu erstellen, die über eine Seite hinausgehen soll.
 Mit </t>
     </r>
     <r>
@@ -1299,7 +1370,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Tabellen sind in LaTeX eine schwäche für kompliziertere Tabellen (Faustregel: Tabellen die mehr als 3 Spalten haben) sollte sich überlegt werden diese in Excel zu erstellen und dann als Bild einzufügen.
+      <t xml:space="preserve"> Tabellen sind in LaTeX eine Schwäche für kompliziertere Tabellen (Faustregel: Tabellen die mehr als 3 Spalten haben) sollte sich überlegt werden diese in Excel zu erstellen und dann als Bild einzufügen.
 </t>
     </r>
     <r>
@@ -1360,18 +1431,17 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>&lt;Tabellenunterschrift&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">.
-Im Gegensatz zu \begin{table} usw. kann eine logtable benutzt werden um eine lange Tabelle zu erstellen, die über eine Seite hinausgehen soll.
+      <t>&lt;Tabellenunterschrift&gt;.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Mit </t>
     </r>
     <r>
@@ -1412,7 +1482,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">} verwiesen werden kann.
+      <t xml:space="preserve">} verweisen werden kann.
 </t>
     </r>
     <r>
@@ -1434,7 +1504,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> Tabellen sind in LaTeX eine schwäche für kompliziertere Tabellen (Faustregel: Tabellen die mehr als 3 Spalten haben) sollte sich überlegt werden diese in Excel zu erstellen und dann als Bild einzufügen.
+      <t xml:space="preserve"> Tabellen sind in LaTeX eine Schwäche für kompliziertere Tabellen (Faustregel: Tabellen die mehr als 3 Spalten haben) sollte sich überlegt werden diese in Excel zu erstellen und dann als Bild einzufügen.
 </t>
     </r>
     <r>
@@ -1485,17 +1555,65 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">Fügt die Quelle mit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Bibtexkey&gt;</t>
+      <t xml:space="preserve">Fügt die Quellen mit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Bibtexkey1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Bibtexkey2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, usw. u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nd optional einen Hinweis auf die jeweilige </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Seitenzahlen&gt;</t>
     </r>
     <r>
       <rPr>
@@ -1509,121 +1627,217 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Fügt die Quelle mit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Bibtexkey&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> und einen Hinweis auf die </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Seitenzahlen&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ein</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fügt die Quellen mit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Bibtexkey1&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Bibtexkey2&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, uw. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Und optional einen Hinweis auf die jeweilige </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Seitenzahlen&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ein</t>
+    <t>Fügt eine URL ein</t>
+  </si>
+  <si>
+    <r>
+      <t>\url{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;URL&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\ac{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzungstag&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Fügt im Text eine Abkürzung ein. Hierbei wird beim Ersten mal die Langform der Abkürzung benutzt.</t>
+  </si>
+  <si>
+    <r>
+      <t>\acl{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzungstag&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Fügt im Text die Langform einer Abkürzung ein.</t>
+  </si>
+  <si>
+    <r>
+      <t>\acro{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzungstag&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzung&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Langform&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fügt in Abkürzungsverzeichnis eine neue Abkürzung hinzu. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzungstag&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wird benutzt um die Abkürzung einzufügen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzung&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ist die Abkürzung. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Langform&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ist die ausgeschriebene Form der Abkürzung.</t>
     </r>
   </si>
 </sst>
@@ -2093,10 +2307,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73D9232-B4C7-4AD3-B9EC-37C3DA453F06}">
-  <dimension ref="A1:B25"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B23" activeCellId="1" sqref="A23 B23"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2155,39 +2369,39 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>20</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>12</v>
@@ -2195,113 +2409,145 @@
     </row>
     <row r="12" spans="1:2" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>26</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>16</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>51</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>28</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
-        <v>37</v>
+        <v>24</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>38</v>
+        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
+      <c r="A19" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A20" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A21" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A22" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A23" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+      <c r="A24" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="189.45" x14ac:dyDescent="0.4">
+      <c r="A25" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="219" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="A26" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B26" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="10" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B17" s="1" t="s">
+    <row r="28" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
+      <c r="A28" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
-      <c r="A20" s="2" t="s">
+    <row r="29" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
+      <c r="A29" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B20" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="189.45" x14ac:dyDescent="0.4">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" ht="219" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A22" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="B22" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
-      <c r="A23" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B23" s="10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
-      <c r="A24" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
-      <c r="A25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B25" s="4" t="s">
+      <c r="B29" s="4" t="s">
         <v>49</v>
       </c>
     </row>

--- a/CheatSheet.xlsx
+++ b/CheatSheet.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="J:\300Templates\LaTexT0000\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3F5CE4BE-EF7E-4F97-BB83-88861081B4E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D2C5380-B482-4E6A-B964-907F9C3230D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="23657" windowHeight="15394" xr2:uid="{1438DDEB-EACA-4B38-9C4E-0A7552483ACC}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Paragraphen (nicht im Inhaltsverzeichnis)</t>
   </si>
   <si>
-    <t>Verlinkung zu einem Kapitel</t>
-  </si>
-  <si>
     <r>
       <t>\label{</t>
     </r>
@@ -398,41 +395,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Erstellt eine Box mit dem Titel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Titel&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> und dem Inhalt </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Text&gt;</t>
     </r>
   </si>
   <si>
@@ -1178,6 +1140,341 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">Fügt die Quellen mit </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Bibtexkey1&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Bibtexkey2&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, usw. u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">nd optional einen Hinweis auf die jeweilige </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Seitenzahlen&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ein</t>
+    </r>
+  </si>
+  <si>
+    <t>Fügt eine URL ein</t>
+  </si>
+  <si>
+    <r>
+      <t>\url{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;URL&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>\ac{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzungstag&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Fügt im Text eine Abkürzung ein. Hierbei wird beim Ersten mal die Langform der Abkürzung benutzt.</t>
+  </si>
+  <si>
+    <r>
+      <t>\acl{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzungstag&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <t>Fügt im Text die Langform einer Abkürzung ein.</t>
+  </si>
+  <si>
+    <r>
+      <t>\acro{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzungstag&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}[</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzung&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>]{</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Langform&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>}</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fügt in Abkürzungsverzeichnis eine neue Abkürzung hinzu. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzungstag&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wird benutzt um die Abkürzung einzufügen. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Abkürzung&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ist die Abkürzung. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Langform&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ist die ausgeschriebene Form der Abkürzung.</t>
+    </r>
+  </si>
+  <si>
+    <t>Verlinkung zu einem Kapitel *</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Erstellt eine Box mit dem Titel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Titel&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> und dem Inhalt </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="0" tint="-0.34998626667073579"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>&lt;Text&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> *</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Fügt eine Abbildung mit der Bildunterschrift </t>
     </r>
     <r>
@@ -1198,7 +1495,28 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> an einer passenden Stelle ein. Versucht hierbei keine großen Lücken auf dem Blatt zu hinterlassen. Soll eine Abbildung an eine spezielle Stelle gepackt werden so kann mit H anstatt von htbp dies definiert werden.
+      <t xml:space="preserve"> an einer passenden Stelle ein. Versucht hierbei keine großen Lücken auf dem Blatt zu hinterlassen. Soll eine Abbildung an eine spezielle Stelle gepackt werden so kann mit H anstatt von htbp dies definiert werden. Mehr Informationen:</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://en.m.wikibooks.org/wiki/LaTeX/Floats,_Figures_and_Captions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
 Mit </t>
     </r>
     <r>
@@ -1393,11 +1711,32 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://en.wikibooks.org/wiki/LaTeX/Tables
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://en.wikibooks.org/wiki/LaTeX/Tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1416,7 +1755,18 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://www.tablesgenerator.com/</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.tablesgenerator.com/</t>
     </r>
   </si>
   <si>
@@ -1527,11 +1877,32 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://en.wikibooks.org/wiki/LaTeX/Tables
 </t>
     </r>
     <r>
       <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://en.wikibooks.org/wiki/LaTeX/Tables</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
         <b/>
         <sz val="11"/>
         <color theme="1"/>
@@ -1550,294 +1921,18 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve">
-https://www.tablesgenerator.com/</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fügt die Quellen mit </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Bibtexkey1&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Bibtexkey2&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>, usw. u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">nd optional einen Hinweis auf die jeweilige </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Seitenzahlen&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ein</t>
-    </r>
-  </si>
-  <si>
-    <t>Fügt eine URL ein</t>
-  </si>
-  <si>
-    <r>
-      <t>\url{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;URL&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>\ac{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Abkürzungstag&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>Fügt im Text eine Abkürzung ein. Hierbei wird beim Ersten mal die Langform der Abkürzung benutzt.</t>
-  </si>
-  <si>
-    <r>
-      <t>\acl{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Abkürzungstag&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <t>Fügt im Text die Langform einer Abkürzung ein.</t>
-  </si>
-  <si>
-    <r>
-      <t>\acro{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Abkürzungstag&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}[</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Abkürzung&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>]{</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Langform&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>}</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Fügt in Abkürzungsverzeichnis eine neue Abkürzung hinzu. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Abkürzungstag&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wird benutzt um die Abkürzung einzufügen. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Abkürzung&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ist die Abkürzung. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="0" tint="-0.34998626667073579"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>&lt;Langform&gt;</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ist die ausgeschriebene Form der Abkürzung.</t>
+</t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color rgb="FF0070C0"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>https://www.tablesgenerator.com/</t>
     </r>
   </si>
 </sst>
@@ -1845,7 +1940,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1885,6 +1980,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0070C0"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2309,8 +2412,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D73D9232-B4C7-4AD3-B9EC-37C3DA453F06}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A24" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -2369,193 +2472,194 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>12</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="116.6" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>24</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>35</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B18" s="1" t="s">
         <v>36</v>
-      </c>
-      <c r="B18" s="1" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="58.3" x14ac:dyDescent="0.4">
       <c r="A19" s="3" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A21" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A22" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A23" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" ht="218.6" x14ac:dyDescent="0.4">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="247.75" x14ac:dyDescent="0.4">
       <c r="A24" s="2" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="189.45" x14ac:dyDescent="0.4">
       <c r="A25" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>48</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="219" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A26" s="3" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>47</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="9" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A28" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B28" s="4" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="43.75" x14ac:dyDescent="0.4">
       <c r="A29" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.7" right="0.7" top="0.76190476190476186" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <headerFooter>
     <oddHeader>&amp;C&amp;"-,Bold"&amp;18Cheat Sheet LaTeX</oddHeader>
+    <oddFooter xml:space="preserve">&amp;L* Befehl für &amp;U&amp;K0070C0https://github.com/JSchmiegel/T0000&amp;U&amp;K01+000  </oddFooter>
   </headerFooter>
 </worksheet>
 </file>